--- a/zhangweidong123/evidence.xlsx
+++ b/zhangweidong123/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22580" windowHeight="11980" tabRatio="500"/>
+    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="500" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>TeamName</t>
   </si>
@@ -94,34 +94,73 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>0A298F95B5A8955303C4B8CD225DC0CAE50D74E47D2220DCFA8D8D08E6B7FEBA</t>
+  </si>
+  <si>
+    <t>moonglowIRISId</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>FECD7BE29E1B6FB5F7B18300897C59A309C57BCA8E58C5EF480CB64405AED78E</t>
+  </si>
+  <si>
+    <t>moonglowNFTFirstId</t>
+  </si>
+  <si>
+    <t>269B5C1B62D25C28F782A421EDB2FBA2ECF7100D0AC09145AD2EDFD999492E66</t>
+  </si>
+  <si>
+    <t>moonglowNFTSecondId</t>
+  </si>
+  <si>
+    <t>2A7023734035CC6A688D011C0D8677A6A4E9291A0F5E3E3626D544EBC72AA432</t>
+  </si>
+  <si>
+    <t>moonglowNFTThirdId</t>
+  </si>
+  <si>
+    <t>contrantAddress</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>1CABDF022F8A7D07E9B581D428A43347BFA7240F5B6EC2F9C0A90BC6BBDA98CF</t>
+  </si>
+  <si>
+    <t>stars10mfhv6uhamgwuc6ukdwlackg5tyg3s3qhkwjdxpm7qay0pugk2ssvpu7u4</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>E9368D40EC49374235ECA93CFDD0B813DB224F0959174116B9F595C68E8107A2</t>
+  </si>
+  <si>
+    <t>ibc/C68E6C2B376E77CECDACF8D5CA651C1EA7223CB5D4A921A508126B88F3D5F8D7</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>DBA878E9380E93D5AC3ECDFF9A13C31DFFD5ECC2159F1AAD6BB0911DEAD8C16B</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-208/moonglowIRISId</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>066C59123A76C14BC4EE4F2D7CC14699DAF7D235AC545FED9EDC7A641D41DFCC</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -145,11 +184,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -163,6 +202,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -170,16 +233,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +279,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,13 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -236,11 +301,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,17 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +348,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,42 +376,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -341,19 +404,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,163 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,8 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,37 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,176 +677,214 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,7 +1275,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1236,28 +1317,28 @@
       </c>
     </row>
     <row r="2" ht="13.95" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1292,10 +1373,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1410,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +1447,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1403,10 +1484,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1435,25 +1516,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1482,25 +1563,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1529,25 +1610,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1576,25 +1657,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1623,25 +1704,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1670,25 +1751,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1704,12 +1785,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
+    <col min="1" max="1" width="35.5625" customWidth="1"/>
+    <col min="2" max="2" width="17.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1720,11 +1802,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="14" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1754,25 +1836,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1801,25 +1883,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1847,12 +1929,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1883,12 +1965,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1919,12 +2001,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1955,12 +2037,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1976,39 +2058,65 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="19.4910714285714" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="2" width="19.4910714285714" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.9732142857143" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="19.4910714285714" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="27" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2023,12 +2131,118 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
+    <col min="1" max="1" width="17.9107142857143" customWidth="1"/>
+    <col min="2" max="2" width="30.0535714285714" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.7857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="37.3482142857143" customWidth="1"/>
+    <col min="2" max="2" width="64.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="17.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="59.5178571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="26.9285714285714" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2043,121 +2257,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.9107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2173,15 +2287,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.9107142857143" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.1785714285714" customWidth="1"/>
-    <col min="4" max="4" width="14.3660714285714" customWidth="1"/>
+    <col min="2" max="2" width="38.3928571428571" customWidth="1"/>
+    <col min="3" max="3" width="28.1160714285714" customWidth="1"/>
+    <col min="4" max="4" width="29.6071428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
@@ -2195,21 +2309,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2243,10 +2357,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2280,10 +2394,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/zhangweidong123/evidence.xlsx
+++ b/zhangweidong123/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="500" firstSheet="2"/>
+    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="805"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>TeamName</t>
   </si>
@@ -157,19 +157,148 @@
     <t>066C59123A76C14BC4EE4F2D7CC14699DAF7D235AC545FED9EDC7A641D41DFCC</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/977F010980CEF5C77560DE1751C15957D510BB8E5D9804ADB2145A716FB88B1F</t>
+  </si>
+  <si>
+    <t>ibc/E76DE79BA18B49AE2207D40BB73E51C2A6858D07D074469A3B21E051F8635EC4</t>
+  </si>
+  <si>
+    <t>ibc/57D4E8B750A8A047E6E645174B6A98F4A120139A3A18840B3F582D4FDB0A6F7C</t>
+  </si>
+  <si>
+    <t>ibc/6DD6EAA0CC7751EF7E6136A9D551CB55D8671A30A3F953DAD03790119B2433BF</t>
+  </si>
+  <si>
+    <t>moonglowA10NFTId</t>
+  </si>
+  <si>
+    <t>ibc/DF314F39407CB7396668B87B56501DCC5F41145262CE99371C99CF9773F4F22E</t>
+  </si>
+  <si>
+    <t>moonglowA11FNFTId</t>
+  </si>
+  <si>
+    <t>ibc/809F5A31B0230969FE52F213BEE107ABC3A8CE343559FF68E6DA5EBB8A3278CC</t>
+  </si>
+  <si>
+    <t>moonglowA12NFTId</t>
+  </si>
+  <si>
+    <t>54ECA63A9E4AB61D44D88A1AD5F70CC386A68CAD6BBAA74232E6E020A030C102</t>
+  </si>
+  <si>
+    <t>1D28193FF22B239567C34EB18FE4E1ECCC2B055C60C71739F042E8ADCD30BFA3</t>
+  </si>
+  <si>
+    <t>AD5C151DE9E34DE2445DED07C0FE3451D1A7DDF3CA513004073C8E3B7694F60C</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>837191D6FD55E4E5CA8FD7F44FF3A08BF03CEBC9B588AF13FABADD5E63B5EF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>E35207A7288BAE7B9C82D03F80FA967354781EF787E86A0FB89EE03F963C9168</t>
+  </si>
+  <si>
+    <t>C0CDF3ED3997AF14557A17EB2979E864674EC2B185DA2C35193688D8E338D0BF</t>
+  </si>
+  <si>
+    <t>B4E33AA056A8049BFE27F476D5348B855F0994D28D2F113502A6A3629C8F9FE4</t>
+  </si>
+  <si>
+    <t>316B7A7E18536ABCA1A91450FBB61398C2C8C136C394474ADD4815B2B926F8A6</t>
+  </si>
+  <si>
+    <t>60F4AB619F34AC9043E7EB91C5164190048602059373DB2EF136312036A97538</t>
+  </si>
+  <si>
+    <t>B8C750C9D57E79C92415FB75C2CFEE728B73452D033CAFB13C280BA9A554E5A3</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>236960EC83D86F032E7B30A8B9A7C7B3BF80B348FD8503B57451DB45DA46BBE8</t>
+  </si>
+  <si>
+    <t>AA2A9633C8D6679B059CE6B1C82B709463300B6D07CED69A36EAF8367DD71D7F</t>
+  </si>
+  <si>
+    <t>B7F948ACB7A79641147B7BB082B5D8F7B4E2B31864DB2984A105142954CB1BBE</t>
+  </si>
+  <si>
+    <t>D4FB8D6B629656257266AE6B40B9037656DA84AC16BE7D1F17FE87FA2239B8C9</t>
+  </si>
+  <si>
+    <t>86CBF5CF405B57483A5CF8985875F631202345DC713DC4895C4726EA57BDC0D8</t>
+  </si>
+  <si>
+    <t>AD4C4DE5BC1038868E74FB284DF19085901F0678C16A32EBF46A02589298FEB3</t>
+  </si>
+  <si>
+    <t>45BB5C37BEFCE9F976B54310100EE0E6A7F96E70BE565770BAB1AE65869601F6</t>
+  </si>
+  <si>
+    <t>FFA836590B9A089B34D4C331643A1060CBC4B2D2F7018B269C96B036CA41788B</t>
+  </si>
+  <si>
+    <t>93DCFE9332C15D8B93A9D725B065734681392B7B56E23E0596D56D456C8FB3CE</t>
+  </si>
+  <si>
+    <t>A988FB4252662EF75CC722CA68EB2D1AFD67D636531A9B2BEA705A6D4D5DEE20</t>
+  </si>
+  <si>
+    <t>82F9848F32B3E0F76982501AAEC0B7B72099CC26450C37F29C4A38A2B23FB4DB</t>
+  </si>
+  <si>
+    <t>EE4DDD81CDA3C758B171D7DFCF7D9D2DA508755255B499440B7DEE7EC9758799</t>
+  </si>
+  <si>
+    <t>F292569545256C093098D130B211EBFF462B6857357E9F3674203B0109F4781B</t>
+  </si>
+  <si>
+    <t>2D72A40C96D751D8F23E8ECB8E51521BBB371133DB7C479C650E005BC621B63F</t>
+  </si>
+  <si>
+    <t>05875292F30BDC12F3CA27A4EA06E8FCB58622917C232693C703BA706EFDEA37</t>
+  </si>
+  <si>
+    <t>9BD7DDBC4A83AF50F695F098361AFD721818ECB034F42630BA3DAEF5FC0CE836</t>
+  </si>
+  <si>
+    <t>02DAD0ABE5E462664044BC362406CAFF6F7FBEB813EB6DBB6955F8E62918FB04</t>
+  </si>
+  <si>
+    <t>D1E2CE8718A4FB0090971BED37A66F7ED440C23C97C8AB0800B6101EE021875E</t>
+  </si>
+  <si>
+    <t>828132036846BA91395802634C79565E874C63DAB4BB62603DE17940050B800E</t>
+  </si>
+  <si>
+    <t>CB2496D75A13F95AA2D2DF63962D2BF0ADA15C947C375859C78AF69CFC5BDFBC</t>
+  </si>
+  <si>
+    <t>0A9517B31CC59CA84B329B7F603245EDDE8DC32CBBC83A31F9F826EB4EE3C1C9</t>
+  </si>
+  <si>
+    <t>7329CCFCA99FF7803F5F0AE71E99C53FAF41BAA1CAE046BCF5F4AEAE59F006D7</t>
+  </si>
+  <si>
+    <t>CB047D95B05B7A0883C01C86EA789B3CC1EDC8BD22F31045118B9F5FBB7199C7</t>
+  </si>
+  <si>
+    <t>F80AC900AB30BB0BCE73CB995455B5C132BDA45B5F63299EF60FCC373A5F4C62</t>
+  </si>
+  <si>
+    <t>69CCDA99DE5154A0F4B85FB6652D294EBAB6AF2423E288BE1D5446D075D8F961</t>
+  </si>
+  <si>
+    <t>7BE036F47174F4E0DDBC29CF0CEA4A55BC22EC26D982E92EF209ECD6D54B5491</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -183,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +331,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A9955"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A202C"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
@@ -232,6 +419,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -247,6 +494,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -255,31 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,37 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -338,52 +562,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +578,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
@@ -410,61 +602,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,125 +776,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,8 +823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,16 +839,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,16 +880,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,201 +917,243 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1275,7 +1544,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1317,28 +1586,28 @@
       </c>
     </row>
     <row r="2" ht="13.95" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1352,15 +1621,16 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.3660714285714" customWidth="1"/>
+    <col min="2" max="2" width="32.7321428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1372,12 +1642,22 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" spans="1:1">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:3">
+      <c r="A4" s="27"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1389,15 +1669,16 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.5357142857143" customWidth="1"/>
+    <col min="2" max="2" width="28.2678571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1410,11 +1691,17 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1426,15 +1713,17 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="63.3928571428571" customWidth="1"/>
+    <col min="2" max="2" width="37.7946428571429" customWidth="1"/>
+    <col min="3" max="3" width="12.6339285714286" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1447,11 +1736,23 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="25"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:1">
+      <c r="A4" s="26"/>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1463,18 +1764,19 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.9910714285714" customWidth="1"/>
+    <col min="2" max="2" width="31.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
+    <row r="1" ht="21" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,13 +1784,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="2" ht="21" customHeight="1" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1"/>
+    <row r="5" ht="21" customHeight="1"/>
+    <row r="6" ht="21" customHeight="1"/>
+    <row r="7" ht="21" customHeight="1" spans="3:3">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="21" customHeight="1"/>
+    <row r="9" ht="21" customHeight="1"/>
+    <row r="10" ht="21" customHeight="1"/>
+    <row r="11" ht="21" customHeight="1"/>
+    <row r="15" ht="12.8" spans="1:1">
+      <c r="A15" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1500,42 +1819,68 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="80.6517857142857" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1547,42 +1892,66 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.0982142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.0803571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="14" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="14" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="13.6" spans="2:2">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1594,42 +1963,66 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="80.5089285714286" customWidth="1"/>
+    <col min="2" max="2" width="31.3928571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="36" customHeight="1" spans="2:2">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="27" customHeight="1" spans="2:2">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" ht="41" customHeight="1" spans="1:1">
+      <c r="A8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1641,42 +2034,69 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.3928571428571" customWidth="1"/>
+    <col min="2" max="2" width="23.0535714285714" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1688,42 +2108,64 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="27" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="60.5714285714286" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.5446428571429" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="12.6339285714286" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1735,42 +2177,68 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="80.9464285714286" customWidth="1"/>
+    <col min="2" max="2" width="23.9553571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1785,7 +2253,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1803,10 +2271,10 @@
       </c>
     </row>
     <row r="2" ht="14" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="36" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1820,42 +2288,77 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="41.0714285714286" defaultRowHeight="35" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="101.642857142857" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.9464285714286" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="41.0714285714286" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1867,41 +2370,80 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="85.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="17.8482142857143" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1929,12 +2471,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1965,12 +2507,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2001,12 +2543,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2037,12 +2579,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2061,62 +2603,62 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4910714285714" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="19.4910714285714" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.9732142857143" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="19.4910714285714" style="8" customWidth="1"/>
+    <col min="1" max="2" width="19.4910714285714" style="34" customWidth="1"/>
+    <col min="3" max="3" width="20.9732142857143" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="19.4910714285714" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="14" spans="1:3">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:3">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="14" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="12"/>
+      <c r="B5" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2156,17 +2698,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="15" spans="1:4">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="32" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2209,17 +2751,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="15" spans="1:4">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="32" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2261,16 +2803,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2287,7 +2829,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2313,16 +2855,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2336,15 +2878,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="82.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="29.4553571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2359,9 +2902,18 @@
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B2" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" spans="1:1">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" ht="12.8" spans="1:1">
+      <c r="A4" s="27"/>
+    </row>
+    <row r="7" ht="12.8" spans="1:1">
+      <c r="A7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2373,15 +2925,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="89.875" customWidth="1"/>
+    <col min="2" max="2" width="44.0357142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2393,12 +2946,18 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" spans="1:1">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/zhangweidong123/evidence.xlsx
+++ b/zhangweidong123/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="805"/>
+    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="805" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>TeamName</t>
   </si>
@@ -148,45 +148,42 @@
     <t>DBA878E9380E93D5AC3ECDFF9A13C31DFFD5ECC2159F1AAD6BB0911DEAD8C16B</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-208/moonglowIRISId</t>
+    <t>066C59123A76C14BC4EE4F2D7CC14699DAF7D235AC545FED9EDC7A641D41DFCC</t>
+  </si>
+  <si>
+    <t>ibc/977F010980CEF5C77560DE1751C15957D510BB8E5D9804ADB2145A716FB88B1F</t>
+  </si>
+  <si>
+    <t>ibc/E76DE79BA18B49AE2207D40BB73E51C2A6858D07D074469A3B21E051F8635EC4</t>
+  </si>
+  <si>
+    <t>ibc/57D4E8B750A8A047E6E645174B6A98F4A120139A3A18840B3F582D4FDB0A6F7C</t>
+  </si>
+  <si>
+    <t>ibc/6DD6EAA0CC7751EF7E6136A9D551CB55D8671A30A3F953DAD03790119B2433BF</t>
+  </si>
+  <si>
+    <t>moonglowA10NFTId</t>
+  </si>
+  <si>
+    <t>ibc/DF314F39407CB7396668B87B56501DCC5F41145262CE99371C99CF9773F4F22E</t>
+  </si>
+  <si>
+    <t>moonglowA11FNFTId</t>
+  </si>
+  <si>
+    <t>ibc/809F5A31B0230969FE52F213BEE107ABC3A8CE343559FF68E6DA5EBB8A3278CC</t>
+  </si>
+  <si>
+    <t>moonglowA12NFTId</t>
+  </si>
+  <si>
+    <t>54ECA63A9E4AB61D44D88A1AD5F70CC386A68CAD6BBAA74232E6E020A030C102</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>066C59123A76C14BC4EE4F2D7CC14699DAF7D235AC545FED9EDC7A641D41DFCC</t>
-  </si>
-  <si>
-    <t>ibc/977F010980CEF5C77560DE1751C15957D510BB8E5D9804ADB2145A716FB88B1F</t>
-  </si>
-  <si>
-    <t>ibc/E76DE79BA18B49AE2207D40BB73E51C2A6858D07D074469A3B21E051F8635EC4</t>
-  </si>
-  <si>
-    <t>ibc/57D4E8B750A8A047E6E645174B6A98F4A120139A3A18840B3F582D4FDB0A6F7C</t>
-  </si>
-  <si>
-    <t>ibc/6DD6EAA0CC7751EF7E6136A9D551CB55D8671A30A3F953DAD03790119B2433BF</t>
-  </si>
-  <si>
-    <t>moonglowA10NFTId</t>
-  </si>
-  <si>
-    <t>ibc/DF314F39407CB7396668B87B56501DCC5F41145262CE99371C99CF9773F4F22E</t>
-  </si>
-  <si>
-    <t>moonglowA11FNFTId</t>
-  </si>
-  <si>
-    <t>ibc/809F5A31B0230969FE52F213BEE107ABC3A8CE343559FF68E6DA5EBB8A3278CC</t>
-  </si>
-  <si>
-    <t>moonglowA12NFTId</t>
-  </si>
-  <si>
-    <t>54ECA63A9E4AB61D44D88A1AD5F70CC386A68CAD6BBAA74232E6E020A030C102</t>
-  </si>
-  <si>
     <t>1D28193FF22B239567C34EB18FE4E1ECCC2B055C60C71739F042E8ADCD30BFA3</t>
   </si>
   <si>
@@ -299,6 +296,18 @@
   </si>
   <si>
     <t>7BE036F47174F4E0DDBC29CF0CEA4A55BC22EC26D982E92EF209ECD6D54B5491</t>
+  </si>
+  <si>
+    <t>9F8384F59BD9DD8DB152D0A2C74620F8975B8C52B6C2D3DD89CF25AD754F2D25</t>
+  </si>
+  <si>
+    <t>CA92DDBC6B97CD36644932CE67186B184F91ED2A23E1DB65B416E9272B6ED468</t>
+  </si>
+  <si>
+    <t>797AAEAAFD9EA56E7DF3E95A3604BF7687EDB892B1AE7C469C7512783B232358</t>
+  </si>
+  <si>
+    <t>3D08FF7CA40AD4A55014AF8C2ACAD8411277476390FAF195893DE9902086F267</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -312,12 +321,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,6 +338,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -344,12 +371,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -361,12 +382,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFCE9178"/>
       <name val="Menlo"/>
       <charset val="1"/>
     </font>
@@ -392,6 +407,12 @@
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6E6B7B"/>
+      <name val="Helvetica"/>
       <charset val="1"/>
     </font>
     <font>
@@ -428,6 +449,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +477,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -457,24 +547,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,83 +583,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -578,13 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,55 +623,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,79 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,13 +874,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,207 +928,187 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1091,69 +1120,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1543,7 +1565,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1586,28 +1608,28 @@
       </c>
     </row>
     <row r="2" ht="13.95" spans="1:8">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1642,22 +1664,22 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="27" t="s">
-        <v>41</v>
+      <c r="A2" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:3">
-      <c r="A4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="28"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1691,17 +1713,17 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1723,7 +1745,7 @@
   <cols>
     <col min="1" max="1" width="63.3928571428571" customWidth="1"/>
     <col min="2" max="2" width="37.7946428571429" customWidth="1"/>
-    <col min="3" max="3" width="12.6339285714286" style="8"/>
+    <col min="3" max="3" width="12.6339285714286" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1736,23 +1758,23 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="25"/>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="9" ht="12.8" spans="1:1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1790,24 +1812,24 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1"/>
     <row r="5" ht="21" customHeight="1"/>
     <row r="6" ht="21" customHeight="1"/>
     <row r="7" ht="21" customHeight="1" spans="3:3">
-      <c r="C7" s="8"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" ht="21" customHeight="1"/>
     <row r="9" ht="21" customHeight="1"/>
     <row r="10" ht="21" customHeight="1"/>
     <row r="11" ht="21" customHeight="1"/>
     <row r="15" ht="12.8" spans="1:1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1828,59 +1850,59 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.6517857142857" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1901,57 +1923,57 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="81.0982142857143" customWidth="1"/>
-    <col min="2" max="2" width="27.0803571428571" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.0803571428571" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="14" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="14" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="13.6" spans="2:2">
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1972,57 +1994,57 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.5089285714286" customWidth="1"/>
-    <col min="2" max="2" width="31.3928571428571" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.3928571428571" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="4" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="36" customHeight="1" spans="2:2">
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="27" customHeight="1" spans="2:2">
-      <c r="B7" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="36" customHeight="1" spans="2:2">
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="27" customHeight="1" spans="2:2">
+      <c r="B7" s="21"/>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2043,60 +2065,60 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="81.3928571428571" customWidth="1"/>
-    <col min="2" max="2" width="23.0535714285714" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.0535714285714" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="29" customHeight="1" spans="2:2">
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="29" customHeight="1" spans="2:2">
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2116,56 +2138,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="27" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="60.5714285714286" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5446428571429" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="12.6339285714286" style="8"/>
+    <col min="1" max="1" width="60.5714285714286" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5446428571429" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="12.6339285714286" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2186,59 +2208,59 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.9464285714286" customWidth="1"/>
-    <col min="2" max="2" width="23.9553571428571" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.9553571428571" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2274,7 +2296,7 @@
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2296,69 +2318,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.0714285714286" defaultRowHeight="35" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="101.642857142857" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.9464285714286" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="41.0714285714286" style="8" customWidth="1"/>
+    <col min="1" max="1" width="101.642857142857" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.9464285714286" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="41.0714285714286" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2379,71 +2401,71 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="85.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.8482142857143" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.8482142857143" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" ht="17" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>53</v>
+      <c r="A11" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2456,13 +2478,16 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="81.5535714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2471,13 +2496,19 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2492,13 +2523,16 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="$A12:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="90.1785714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2507,13 +2541,22 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="15" ht="12.8" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2543,12 +2586,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2579,12 +2622,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2608,57 +2651,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4910714285714" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="19.4910714285714" style="34" customWidth="1"/>
-    <col min="3" max="3" width="20.9732142857143" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="19.4910714285714" style="34" customWidth="1"/>
+    <col min="1" max="2" width="19.4910714285714" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.9732142857143" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="19.4910714285714" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="14" spans="1:3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2698,17 +2741,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="15" spans="1:4">
-      <c r="A2" s="32" t="s">
+    <row r="2" s="33" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2751,17 +2794,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="15" spans="1:4">
-      <c r="A2" s="32" t="s">
+    <row r="2" s="33" customFormat="1" ht="15" spans="1:4">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2784,8 +2827,8 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="26.9285714285714" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="83.1785714285714" customWidth="1"/>
+    <col min="3" max="3" width="38.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
@@ -2806,14 +2849,14 @@
       <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>36</v>
+      <c r="B2" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2828,8 +2871,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2856,7 +2899,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>33</v>
@@ -2865,7 +2908,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2900,20 +2943,20 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="4" ht="12.8" spans="1:1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
     </row>
     <row r="7" ht="12.8" spans="1:1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2946,18 +2989,18 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="27" t="s">
-        <v>40</v>
+      <c r="A2" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/zhangweidong123/evidence.xlsx
+++ b/zhangweidong123/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="805" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="805" firstSheet="8" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -310,10 +311,22 @@
     <t>3D08FF7CA40AD4A55014AF8C2ACAD8411277476390FAF195893DE9902086F267</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>0F7322F68BB3F856BFA71059BE3C0FADB8517B7DA15E849B06C5F82138CE2DEE</t>
+  </si>
+  <si>
+    <t>05C69360C0D7E201B064D69B6D9083A4A49A9C46996C761DE426EA6FB5B36541</t>
+  </si>
+  <si>
+    <t>E7DC840E3435000F3E3E27DE940DA34C89531EBD3F9F79F8102CF83A24E378B5</t>
+  </si>
+  <si>
+    <t>F765253BC534B2A136054A218B2F40DCE00C2FD3F407FA29598FAF814A470BAC</t>
+  </si>
+  <si>
+    <t>409CE5DF89076506370DD8A56A097C5097183122D1080C73A21C4E7B41367763</t>
+  </si>
+  <si>
+    <t>F7815A21E7B1F28917A10DA985DDB11BD57F6A5AF83601CE84579F2937469D7F</t>
   </si>
 </sst>
 </file>
@@ -321,10 +334,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -340,15 +353,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
       <charset val="1"/>
     </font>
     <font>
@@ -441,14 +454,106 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,21 +568,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -485,56 +575,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,42 +591,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -623,25 +636,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,31 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,31 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,79 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,39 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -885,6 +865,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,6 +917,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -938,151 +942,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,13 +1103,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1139,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1141,14 +1157,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1158,9 +1174,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1664,7 +1677,7 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1672,14 +1685,14 @@
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:3">
-      <c r="A4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="29"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1720,10 +1733,10 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1745,7 +1758,7 @@
   <cols>
     <col min="1" max="1" width="63.3928571428571" customWidth="1"/>
     <col min="2" max="2" width="37.7946428571429" customWidth="1"/>
-    <col min="3" max="3" width="12.6339285714286" style="12"/>
+    <col min="3" max="3" width="12.6339285714286" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1760,21 +1773,21 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
     </row>
     <row r="9" ht="12.8" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1822,14 +1835,14 @@
     <row r="5" ht="21" customHeight="1"/>
     <row r="6" ht="21" customHeight="1"/>
     <row r="7" ht="21" customHeight="1" spans="3:3">
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" ht="21" customHeight="1"/>
     <row r="9" ht="21" customHeight="1"/>
     <row r="10" ht="21" customHeight="1"/>
     <row r="11" ht="21" customHeight="1"/>
     <row r="15" ht="12.8" spans="1:1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1850,14 +1863,14 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.6517857142857" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1865,7 +1878,7 @@
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1873,7 +1886,7 @@
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1881,7 +1894,7 @@
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1889,7 +1902,7 @@
       <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1899,10 +1912,10 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1923,14 +1936,14 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="81.0982142857143" customWidth="1"/>
-    <col min="2" max="2" width="27.0803571428571" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.0803571428571" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1938,7 +1951,7 @@
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1946,7 +1959,7 @@
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1954,7 +1967,7 @@
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1962,18 +1975,18 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="13.6" spans="2:2">
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1994,57 +2007,57 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.5089285714286" customWidth="1"/>
-    <col min="2" max="2" width="31.3928571428571" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.3928571428571" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="13" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="13" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="13" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="13" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="13" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="36" customHeight="1" spans="2:2">
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="27" customHeight="1" spans="2:2">
-      <c r="B7" s="21"/>
+    <row r="6" s="13" customFormat="1" ht="36" customHeight="1" spans="2:2">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" s="13" customFormat="1" ht="27" customHeight="1" spans="2:2">
+      <c r="B7" s="22"/>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2065,60 +2078,60 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="81.3928571428571" customWidth="1"/>
-    <col min="2" max="2" width="23.0535714285714" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.0535714285714" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="29" customHeight="1" spans="2:2">
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="29" customHeight="1" spans="2:2">
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A8" s="22" t="s">
+    <row r="6" s="13" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" s="13" customFormat="1" ht="29" customHeight="1" spans="2:2">
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" s="13" customFormat="1" ht="29" customHeight="1" spans="1:2">
+      <c r="A8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2138,56 +2151,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="27" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="60.5714285714286" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5446428571429" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="12.6339285714286" style="12"/>
+    <col min="1" max="1" width="60.5714285714286" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5446428571429" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="12.6339285714286" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2208,14 +2221,14 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="80.9464285714286" customWidth="1"/>
-    <col min="2" max="2" width="23.9553571428571" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.9553571428571" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2223,7 +2236,7 @@
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2231,7 +2244,7 @@
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2239,7 +2252,7 @@
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2247,7 +2260,7 @@
       <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2257,10 +2270,10 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2293,7 +2306,7 @@
       </c>
     </row>
     <row r="2" ht="14" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2318,69 +2331,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.0714285714286" defaultRowHeight="35" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="101.642857142857" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.9464285714286" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="41.0714285714286" style="12" customWidth="1"/>
+    <col min="1" max="1" width="101.642857142857" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.9464285714286" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="41.0714285714286" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2401,14 +2414,14 @@
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="85.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.8482142857143" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.8482142857143" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2416,7 +2429,7 @@
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2424,7 +2437,7 @@
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2432,7 +2445,7 @@
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2440,7 +2453,7 @@
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2448,7 +2461,7 @@
       <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2456,15 +2469,15 @@
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2500,15 +2513,15 @@
       </c>
     </row>
     <row r="3" ht="14" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2550,13 +2563,13 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="15" ht="12.8" spans="1:1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2571,13 +2584,16 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="66.3660714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2593,6 +2609,12 @@
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2607,13 +2629,16 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="80.9553571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2622,13 +2647,64 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5446428571429" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="94.7857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2846,16 +2922,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2871,7 +2947,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2898,16 +2974,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2945,18 +3021,18 @@
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
     </row>
     <row r="4" ht="12.8" spans="1:1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
     </row>
     <row r="7" ht="12.8" spans="1:1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2989,7 +3065,7 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2997,10 +3073,10 @@
       </c>
     </row>
     <row r="3" ht="12.8" spans="1:1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
